--- a/报价系统功能清单0510.xlsx
+++ b/报价系统功能清单0510.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="8670" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
   <si>
     <t>项目名称</t>
   </si>
@@ -57,6 +57,12 @@
     <t>列表展示</t>
   </si>
   <si>
+    <t>蒯付平</t>
+  </si>
+  <si>
+    <t>杨耀</t>
+  </si>
+  <si>
     <t>查询</t>
   </si>
   <si>
@@ -84,6 +90,9 @@
     <t>保存（新增/修改）</t>
   </si>
   <si>
+    <t>章玉雪</t>
+  </si>
+  <si>
     <t>显示数据（查看/修改）</t>
   </si>
   <si>
@@ -102,6 +111,9 @@
     <t>报价单列表</t>
   </si>
   <si>
+    <t>李威成</t>
+  </si>
+  <si>
     <t>查询/清除</t>
   </si>
   <si>
@@ -114,6 +126,9 @@
     <t>报价单</t>
   </si>
   <si>
+    <t>赵艳平</t>
+  </si>
+  <si>
     <t>复制报价单</t>
   </si>
   <si>
@@ -123,7 +138,10 @@
     <t>关联经销商列表</t>
   </si>
   <si>
-    <t>权限控制（报价折扣/饰品折扣/选择单品/报价数量）</t>
+    <t>批量更新产品</t>
+  </si>
+  <si>
+    <t>权限控制（报价折扣/饰品折扣/选择单品/删除单品/报价数量）</t>
   </si>
   <si>
     <t>经销商详情</t>
@@ -165,6 +183,9 @@
     <t>计算服务费用</t>
   </si>
   <si>
+    <t>赵俊</t>
+  </si>
+  <si>
     <t>显示服务费用规则</t>
   </si>
   <si>
@@ -190,6 +211,9 @@
   </si>
   <si>
     <t>DB</t>
+  </si>
+  <si>
+    <t>赵艳平、赵俊</t>
   </si>
 </sst>
 </file>
@@ -325,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -353,6 +377,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -650,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G42"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="36" customHeight="1"/>
@@ -662,7 +689,8 @@
     <col min="3" max="3" width="20.25" style="3" customWidth="1"/>
     <col min="4" max="4" width="47.375" style="4" customWidth="1"/>
     <col min="5" max="6" width="12.875" style="3" customWidth="1"/>
-    <col min="7" max="9" width="8.875" style="3" customWidth="1"/>
+    <col min="7" max="8" width="8.875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.25" style="3" customWidth="1"/>
     <col min="10" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
@@ -696,642 +724,688 @@
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="16">
         <v>1</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="16">
         <v>1</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="16">
         <v>8</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="H2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15">
+        <v>16</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="16">
         <v>0</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="15">
+        <v>18</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="16">
         <v>1</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="16"/>
+        <v>20</v>
+      </c>
+      <c r="E8" s="17"/>
       <c r="F8" s="7">
         <v>3</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="17"/>
+        <v>21</v>
+      </c>
+      <c r="E9" s="18"/>
       <c r="F9" s="8">
         <v>1</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="11" t="s">
-        <v>20</v>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="15">
+        <v>23</v>
+      </c>
+      <c r="E10" s="16">
         <v>4</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="16">
         <v>4</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="11" t="s">
-        <v>27</v>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="16">
         <v>1</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="16">
         <v>2</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
     </row>
     <row r="18" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
     </row>
     <row r="19" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
     </row>
     <row r="20" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="16"/>
+        <v>20</v>
+      </c>
+      <c r="E21" s="17"/>
       <c r="F21" s="7">
         <v>3</v>
       </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
     </row>
     <row r="22" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="17"/>
+        <v>34</v>
+      </c>
+      <c r="E22" s="18"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
     </row>
     <row r="23" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="11" t="s">
-        <v>31</v>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="15">
+        <v>23</v>
+      </c>
+      <c r="E23" s="16">
         <v>4</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="16">
         <v>4</v>
       </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="24" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
     </row>
     <row r="25" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
     </row>
     <row r="28" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="13"/>
       <c r="D28" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E28" s="17"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
+      <c r="F28" s="10">
+        <v>2</v>
+      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
     </row>
     <row r="29" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="11" t="s">
-        <v>36</v>
-      </c>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="15">
+        <v>41</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="16">
         <v>1</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F30" s="16">
         <v>1</v>
       </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="31" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E31" s="17"/>
-      <c r="F31" s="7">
+      <c r="F31" s="18"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+    </row>
+    <row r="32" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="18"/>
+      <c r="F32" s="7">
         <v>2</v>
       </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="7">
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="7">
         <v>0.5</v>
-      </c>
-      <c r="F32" s="7">
-        <v>1</v>
-      </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="1:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="8">
-        <v>1</v>
       </c>
       <c r="F33" s="7">
         <v>1</v>
       </c>
-      <c r="G33" s="16"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="12"/>
-      <c r="B34" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>45</v>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="7">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1</v>
       </c>
       <c r="F34" s="7">
-        <v>4</v>
-      </c>
-      <c r="G34" s="16"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="16" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="35" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="14" t="s">
-        <v>47</v>
+      <c r="A35" s="13"/>
+      <c r="B35" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E35" s="7">
         <v>0</v>
       </c>
       <c r="F35" s="7">
+        <v>4</v>
+      </c>
+      <c r="G35" s="17"/>
+      <c r="H35" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
         <v>3</v>
       </c>
-      <c r="G35" s="16"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="7">
-        <v>1</v>
-      </c>
-      <c r="G36" s="16"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="16" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="37" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="14"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="8"/>
+      <c r="F37" s="7">
+        <v>1</v>
+      </c>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+    </row>
+    <row r="38" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="7">
         <v>0.5</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F38" s="7">
         <v>0</v>
       </c>
-      <c r="G37" s="16"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="7">
-        <v>0</v>
-      </c>
-      <c r="F38" s="7">
-        <v>1</v>
-      </c>
-      <c r="G38" s="16"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="1:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="10" t="s">
-        <v>51</v>
-      </c>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="18"/>
+    </row>
+    <row r="39" spans="1:9" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="15"/>
       <c r="D39" s="6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E39" s="7">
         <v>0</v>
       </c>
       <c r="F39" s="7">
+        <v>1</v>
+      </c>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7">
         <v>3</v>
       </c>
-      <c r="G39" s="16"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-    </row>
-    <row r="40" spans="1:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="7">
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="7">
         <v>0.5</v>
       </c>
-      <c r="G40" s="16"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-    </row>
-    <row r="41" spans="1:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E41" s="7">
-        <v>0</v>
-      </c>
-      <c r="F41" s="7">
-        <v>1</v>
-      </c>
-      <c r="G41" s="16"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="18"/>
     </row>
     <row r="42" spans="1:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="13"/>
-      <c r="B42" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="7"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0</v>
+      </c>
       <c r="F42" s="7">
+        <v>1</v>
+      </c>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="14"/>
+      <c r="B43" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7">
         <v>2</v>
       </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" spans="1:9" ht="36" customHeight="1">
-      <c r="D43" s="3"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="44" spans="1:9" ht="36" customHeight="1">
       <c r="D44" s="3"/>
@@ -1690,11 +1764,27 @@
     <row r="162" spans="4:4" ht="36" customHeight="1">
       <c r="D162" s="3"/>
     </row>
+    <row r="163" spans="4:4" ht="36" customHeight="1">
+      <c r="D163" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="35">
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I2:I15"/>
+    <mergeCell ref="I16:I22"/>
+    <mergeCell ref="I23:I29"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="I34:I35"/>
     <mergeCell ref="F23:F27"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G2:G42"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G2:G43"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="H16:H22"/>
+    <mergeCell ref="H23:H29"/>
+    <mergeCell ref="H30:H34"/>
+    <mergeCell ref="H35:H43"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
@@ -1703,20 +1793,20 @@
     <mergeCell ref="E2:E9"/>
     <mergeCell ref="E10:E15"/>
     <mergeCell ref="E16:E22"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="A2:A42"/>
-    <mergeCell ref="B2:B33"/>
-    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="E23:E29"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="A2:A43"/>
+    <mergeCell ref="B2:B34"/>
+    <mergeCell ref="B35:B42"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="C10:C15"/>
     <mergeCell ref="C16:C22"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="C23:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C36:C39"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="50" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>